--- a/data/trans_dic/P1417-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P1417-Clase-trans_dic.xlsx
@@ -717,31 +717,31 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.001585880412181283</v>
+        <v>0.001571206374322807</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.003196992758931812</v>
+        <v>0.003179688723411931</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.009608222891313405</v>
+        <v>0.009472552381147983</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02167226990930441</v>
+        <v>0.0230695148559306</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.00258370736539784</v>
+        <v>0.002578305502936413</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.00648550816447522</v>
+        <v>0.005404749784907935</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.001172357422842627</v>
+        <v>0.001169394303095927</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01297321208284237</v>
+        <v>0.01312875325825803</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02193849581790886</v>
+        <v>0.02242691383729215</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01563073847175597</v>
+        <v>0.01573616967791036</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01353842698788675</v>
+        <v>0.0134666423413217</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.01507520347993623</v>
+        <v>0.01375480661537827</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.02748200986212723</v>
+        <v>0.0297937565916981</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.04388942833056834</v>
+        <v>0.04230936960339658</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02838929836393806</v>
+        <v>0.02984533305341632</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.05110772703817264</v>
+        <v>0.05112265316765503</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01726191096010126</v>
+        <v>0.01842578868464776</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.02052175549692429</v>
+        <v>0.02197178792888953</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.0150007410244758</v>
+        <v>0.01445448867549225</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.0278037515164551</v>
+        <v>0.02781912652775293</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.01313500542617954</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.03321964613618813</v>
+        <v>0.03321964613618814</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.008420416744718178</v>
@@ -850,34 +850,34 @@
         <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.002426575317361442</v>
+        <v>0.002402880564720314</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.002866948822537099</v>
+        <v>0.002157060229077028</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.005268083668835979</v>
+        <v>0.005300864591347876</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.009010618378847457</v>
+        <v>0.008956319269735311</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.005135012921901308</v>
+        <v>0.005138065355583844</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02118701772771635</v>
+        <v>0.02126205726694254</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.002865325524048679</v>
+        <v>0.003929781079023186</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.005289286475848401</v>
+        <v>0.005282014372140905</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.005027164252887379</v>
+        <v>0.005160108808751423</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01288824005663154</v>
+        <v>0.01290437563478952</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01245342340041789</v>
+        <v>0.01483683378476056</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01247180169141032</v>
+        <v>0.0123815329376978</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0215414924157633</v>
+        <v>0.02139258922339264</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.01993787413927992</v>
+        <v>0.01702818478876586</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.0314753175551807</v>
+        <v>0.03226070910678678</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.04485879668092521</v>
+        <v>0.04221614061223439</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02904570726772679</v>
+        <v>0.02989294490503669</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.05069003405299461</v>
+        <v>0.04936624886661474</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01753454556352179</v>
+        <v>0.01753797173097131</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.02067792381391959</v>
+        <v>0.02182212064402392</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01925585594791523</v>
+        <v>0.02001092861169881</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.02871380513884019</v>
+        <v>0.02881626369495423</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.009773789271759455</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.01483548195557983</v>
+        <v>0.01483548195557984</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.03596542311969793</v>
@@ -969,7 +969,7 @@
         <v>0.01790126222923806</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.02356069012366192</v>
+        <v>0.02356069012366193</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.001482727122140758</v>
+        <v>0.00150537304756823</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.003264043135795393</v>
+        <v>0.003041130978358505</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.006623125346803506</v>
+        <v>0.007221437787836971</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01726429447677186</v>
+        <v>0.01606248732935541</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.007491944575251087</v>
+        <v>0.007203317189538812</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01889603396534851</v>
+        <v>0.01838713000159114</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.02666491188903399</v>
+        <v>0.0245988216239807</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.006574746880292521</v>
+        <v>0.006492719738522892</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.002293753820059125</v>
+        <v>0.003121806869680811</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.009245007439600408</v>
+        <v>0.00933322582239216</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01547161657479033</v>
+        <v>0.01472292046232874</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01849468726036382</v>
+        <v>0.01802254329106263</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.008434367482637876</v>
+        <v>0.00680469882780262</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02230223212232958</v>
+        <v>0.02244925488026236</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.0286560955394413</v>
+        <v>0.02934420298698777</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.07639261366172452</v>
+        <v>0.07523135357492662</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.04219786265695913</v>
+        <v>0.04036833596711419</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.08836398434174365</v>
+        <v>0.08329617052545765</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.0776583236447843</v>
+        <v>0.0750574095728864</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.02449133992880407</v>
+        <v>0.02500657074424237</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.01361356738915706</v>
+        <v>0.01477343050918808</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.02967053728599344</v>
+        <v>0.03007438953994975</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.0359712499450175</v>
+        <v>0.03458212780140376</v>
       </c>
     </row>
     <row r="13">
@@ -1119,37 +1119,37 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.002659683901505477</v>
+        <v>0.002688081067639252</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.001679985428889252</v>
+        <v>0.001697016212797435</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.009220822135453954</v>
+        <v>0.008251906359909649</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.006206404797570316</v>
+        <v>0.005668582062856578</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01236976337516605</v>
+        <v>0.0132329545897883</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01453908872041439</v>
+        <v>0.01414883919381662</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02290977541435854</v>
+        <v>0.02345806209004898</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.003104127118545093</v>
+        <v>0.002865573304974157</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.008183893572224019</v>
+        <v>0.008072585543215806</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.007511750964635951</v>
+        <v>0.008067581494194977</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.01579153751850968</v>
+        <v>0.01642480649894204</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.005554563768235031</v>
+        <v>0.005600792036712426</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01263817848802257</v>
+        <v>0.012393458416787</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.009651447210410138</v>
+        <v>0.01028413920867527</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.02181463104946223</v>
+        <v>0.02086460507533891</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.02350808546896127</v>
+        <v>0.02212539555339708</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.03360575436586637</v>
+        <v>0.03619833545004636</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03647733308009053</v>
+        <v>0.03438768449449863</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.04290450825109188</v>
+        <v>0.04315976459018984</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01031731726443865</v>
+        <v>0.009744863645926943</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.01883194114982226</v>
+        <v>0.01738625992339086</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.01744133735337414</v>
+        <v>0.01780901561802373</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.02762593504280372</v>
+        <v>0.02734990537962719</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.02511607753175826</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.04929091956284717</v>
+        <v>0.04929091956284715</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.005044383214235113</v>
+        <v>0.005076989255746094</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.002205883501392703</v>
+        <v>0.001918734790661376</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.001432890211308819</v>
+        <v>0.001431975255373057</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01301557411873143</v>
+        <v>0.01314597099323148</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.0105870916642063</v>
+        <v>0.009930055372447042</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.02926627138683484</v>
+        <v>0.02975650922484368</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.02845831570563627</v>
+        <v>0.02830570534786815</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.05476673864245606</v>
+        <v>0.05472941622994516</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.009774036349967942</v>
+        <v>0.009979553780778107</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.0196830778598778</v>
+        <v>0.01944074206855743</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01754559590673211</v>
+        <v>0.01663334358609168</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.04034713745239984</v>
+        <v>0.04085965784693939</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02873353598712896</v>
+        <v>0.02904919934612741</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.0202480072041126</v>
+        <v>0.01893336027656682</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01304464268319867</v>
+        <v>0.01324981742884518</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.03723436894255761</v>
+        <v>0.03585061936947909</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.03713606153765561</v>
+        <v>0.03709091821001265</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.0607699923075369</v>
+        <v>0.06256352129502911</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.06123798376657615</v>
+        <v>0.0574836642646251</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.08433670749352534</v>
+        <v>0.08194354824817039</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.02862177496365311</v>
+        <v>0.0282014921863683</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.03980522600058573</v>
+        <v>0.0402458966507727</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.03526557268728506</v>
+        <v>0.03450206463536471</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.06005399711627037</v>
+        <v>0.05962815032861394</v>
       </c>
     </row>
     <row r="19">
@@ -1377,7 +1377,7 @@
         <v>0.01668964195233321</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.03556169405872135</v>
+        <v>0.03556169405872134</v>
       </c>
     </row>
     <row r="20">
@@ -1394,28 +1394,28 @@
       </c>
       <c r="F20" s="5" t="inlineStr"/>
       <c r="G20" s="5" t="n">
-        <v>0.01178120816877977</v>
+        <v>0.01172739257556135</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.01504282628634585</v>
+        <v>0.01545250859907011</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.01176841718816846</v>
+        <v>0.01185584966757305</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.034123033843776</v>
+        <v>0.03365209948559474</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.009711132877003176</v>
+        <v>0.009441823663531046</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.01282458053976363</v>
+        <v>0.01327015218267388</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.0108990715355932</v>
+        <v>0.01061135411879045</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.02670016703338157</v>
+        <v>0.02714343040191751</v>
       </c>
     </row>
     <row r="21">
@@ -1428,32 +1428,32 @@
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="n">
-        <v>0.02524510188573719</v>
+        <v>0.02471463972505888</v>
       </c>
       <c r="F21" s="5" t="inlineStr"/>
       <c r="G21" s="5" t="n">
-        <v>0.02817539423607767</v>
+        <v>0.02779754316265189</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.03589860794537263</v>
+        <v>0.03496567731882341</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.0287334998971528</v>
+        <v>0.02918820746581642</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.06068439443380749</v>
+        <v>0.06071048914042033</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.02215922333601509</v>
+        <v>0.02292779338231791</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.02867554483160136</v>
+        <v>0.02901006320859387</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.02546342592633325</v>
+        <v>0.02507180085261299</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.04692325972093277</v>
+        <v>0.04963909994360616</v>
       </c>
     </row>
     <row r="22">
@@ -1477,7 +1477,7 @@
         <v>0.005640129023262331</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.01223040977866577</v>
+        <v>0.01223040977866576</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.0170724723132554</v>
@@ -1489,7 +1489,7 @@
         <v>0.02423507513955658</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.04436289771506914</v>
+        <v>0.04436289771506915</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.0107025526903223</v>
@@ -1501,7 +1501,7 @@
         <v>0.01513366893530643</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.02873369557573938</v>
+        <v>0.02873369557573937</v>
       </c>
     </row>
     <row r="23">
@@ -1512,40 +1512,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.002183639655163112</v>
+        <v>0.002243383021538265</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.002343082097270808</v>
+        <v>0.002667502599056913</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.003577772794602872</v>
+        <v>0.003398216082788767</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.009290041505749367</v>
+        <v>0.009372237477904248</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.0131141765330967</v>
+        <v>0.01317298904435431</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.02189617850425373</v>
+        <v>0.0220340209747801</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.01939336301765901</v>
+        <v>0.0193170281955428</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.03862428306031276</v>
+        <v>0.03892855373778479</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.00848656624351582</v>
+        <v>0.008372100957632198</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.01312715650977007</v>
+        <v>0.01279405558370698</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.01225280091925672</v>
+        <v>0.0123042370881397</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.02581049704586892</v>
+        <v>0.02557071578422096</v>
       </c>
     </row>
     <row r="24">
@@ -1556,40 +1556,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.007147505341097778</v>
+        <v>0.00710796532780666</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.007103639876945235</v>
+        <v>0.007414822743611093</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.008860894113072787</v>
+        <v>0.008843454359032952</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.01610131354227479</v>
+        <v>0.01599760804249856</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.02267959600345288</v>
+        <v>0.02194918372489509</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.03342631841662293</v>
+        <v>0.03258888468683065</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.02960193894101013</v>
+        <v>0.02991281891580835</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.05022459929109167</v>
+        <v>0.05057144065874773</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.01366502212191012</v>
+        <v>0.01356933971735029</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.01924358654105447</v>
+        <v>0.01903225880463793</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.01823471745472247</v>
+        <v>0.01840469392274214</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.03253906962198585</v>
+        <v>0.03235288459551605</v>
       </c>
     </row>
     <row r="25">
@@ -1871,31 +1871,31 @@
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3021</v>
+        <v>2979</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>10585</v>
+        <v>11267</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>4875</v>
+        <v>4063</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>13480</v>
+        <v>13641</v>
       </c>
     </row>
     <row r="7">
@@ -1906,40 +1906,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>10394</v>
+        <v>10625</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>6834</v>
+        <v>6880</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>5809</v>
+        <v>5778</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>8301</v>
+        <v>7574</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>8428</v>
+        <v>9137</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>13801</v>
+        <v>13304</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>9853</v>
+        <v>10358</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>24962</v>
+        <v>24969</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>13472</v>
+        <v>14381</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>15425</v>
+        <v>16515</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>11643</v>
+        <v>11219</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>28889</v>
+        <v>28905</v>
       </c>
     </row>
     <row r="8">
@@ -2048,34 +2048,34 @@
         <v>0</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>915</v>
+        <v>906</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1385</v>
+        <v>1042</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1959</v>
+        <v>1971</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>3046</v>
+        <v>3027</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>8951</v>
+        <v>8983</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>2117</v>
+        <v>2903</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>4003</v>
+        <v>3997</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>3768</v>
+        <v>3868</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>11673</v>
+        <v>11688</v>
       </c>
     </row>
     <row r="11">
@@ -2086,40 +2086,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>4570</v>
+        <v>5444</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>5223</v>
+        <v>5185</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>8126</v>
+        <v>8070</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>9634</v>
+        <v>8228</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>11705</v>
+        <v>11997</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>15163</v>
+        <v>14270</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>10813</v>
+        <v>11128</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>21416</v>
+        <v>20857</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>12955</v>
+        <v>12957</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>15649</v>
+        <v>16515</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>14432</v>
+        <v>14998</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>26006</v>
+        <v>26099</v>
       </c>
     </row>
     <row r="12">
@@ -2222,40 +2222,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>804</v>
+        <v>816</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1704</v>
+        <v>1587</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>3109</v>
+        <v>3390</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>2897</v>
+        <v>2695</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1949</v>
+        <v>1874</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>3139</v>
+        <v>3055</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>4992</v>
+        <v>4605</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>4669</v>
+        <v>4611</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>2040</v>
+        <v>2777</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>6361</v>
+        <v>6422</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>10159</v>
+        <v>9667</v>
       </c>
     </row>
     <row r="15">
@@ -2266,40 +2266,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>10031</v>
+        <v>9775</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>5309</v>
+        <v>4283</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>11640</v>
+        <v>11717</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>13451</v>
+        <v>13774</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>12817</v>
+        <v>12622</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>10977</v>
+        <v>10501</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>14679</v>
+        <v>13837</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>14539</v>
+        <v>14052</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>17393</v>
+        <v>17759</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>12110</v>
+        <v>13142</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>20414</v>
+        <v>20692</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>23620</v>
+        <v>22707</v>
       </c>
     </row>
     <row r="16">
@@ -2405,37 +2405,37 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3083</v>
+        <v>3116</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1931</v>
+        <v>1951</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>10437</v>
+        <v>9340</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>4433</v>
+        <v>4049</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>9459</v>
+        <v>10120</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>12007</v>
+        <v>11685</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>19686</v>
+        <v>20157</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>6061</v>
+        <v>5595</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>15744</v>
+        <v>15529</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>14840</v>
+        <v>15938</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>31443</v>
+        <v>32704</v>
       </c>
     </row>
     <row r="19">
@@ -2446,40 +2446,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>6878</v>
+        <v>6936</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>14648</v>
+        <v>14364</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>11096</v>
+        <v>11823</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>24691</v>
+        <v>23615</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>16791</v>
+        <v>15804</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>25699</v>
+        <v>27682</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>30126</v>
+        <v>28400</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>36868</v>
+        <v>37087</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>20146</v>
+        <v>19028</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>36228</v>
+        <v>33446</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>34456</v>
+        <v>35182</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>55007</v>
+        <v>54458</v>
       </c>
     </row>
     <row r="20">
@@ -2582,40 +2582,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1768</v>
+        <v>1780</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1126</v>
+        <v>980</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>889</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>7349</v>
+        <v>7422</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>6021</v>
+        <v>5648</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>22250</v>
+        <v>22622</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>21009</v>
+        <v>20897</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>45387</v>
+        <v>45356</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>8985</v>
+        <v>9174</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>25014</v>
+        <v>24706</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>23844</v>
+        <v>22604</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>56217</v>
+        <v>56931</v>
       </c>
     </row>
     <row r="23">
@@ -2626,40 +2626,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>10073</v>
+        <v>10183</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>10339</v>
+        <v>9667</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>8097</v>
+        <v>8224</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>21023</v>
+        <v>20241</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>21121</v>
+        <v>21096</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>46200</v>
+        <v>47564</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>45209</v>
+        <v>42437</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>69892</v>
+        <v>67909</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>26312</v>
+        <v>25926</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>50586</v>
+        <v>51146</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>47924</v>
+        <v>46887</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>83675</v>
+        <v>83082</v>
       </c>
     </row>
     <row r="24">
@@ -2768,28 +2768,28 @@
       </c>
       <c r="F26" s="6" t="inlineStr"/>
       <c r="G26" s="6" t="n">
-        <v>14712</v>
+        <v>14645</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>16672</v>
+        <v>17126</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>12734</v>
+        <v>12828</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>28765</v>
+        <v>28368</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>15023</v>
+        <v>14606</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>17636</v>
+        <v>18249</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>14923</v>
+        <v>14529</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>28842</v>
+        <v>29321</v>
       </c>
     </row>
     <row r="27">
@@ -2802,32 +2802,32 @@
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="n">
-        <v>7249</v>
+        <v>7097</v>
       </c>
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="n">
-        <v>35184</v>
+        <v>34712</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>39787</v>
+        <v>38753</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>31090</v>
+        <v>31582</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>51156</v>
+        <v>51178</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>34279</v>
+        <v>35468</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>39434</v>
+        <v>39894</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>34864</v>
+        <v>34328</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>50687</v>
+        <v>53621</v>
       </c>
     </row>
     <row r="28">
@@ -2930,40 +2930,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>7141</v>
+        <v>7336</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>8018</v>
+        <v>9128</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>12113</v>
+        <v>11505</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>31929</v>
+        <v>32212</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>44301</v>
+        <v>44500</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>77641</v>
+        <v>78130</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>68490</v>
+        <v>68220</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>140172</v>
+        <v>141277</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>56421</v>
+        <v>55660</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>91467</v>
+        <v>89146</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>84757</v>
+        <v>85112</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>182378</v>
+        <v>180684</v>
       </c>
     </row>
     <row r="31">
@@ -2974,40 +2974,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>23374</v>
+        <v>23244</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>24308</v>
+        <v>25373</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>30001</v>
+        <v>29941</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>55339</v>
+        <v>54982</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>76614</v>
+        <v>74147</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>118525</v>
+        <v>115556</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>104542</v>
+        <v>105640</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>182271</v>
+        <v>183530</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>90849</v>
+        <v>90213</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>134085</v>
+        <v>132613</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>126135</v>
+        <v>127311</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>229922</v>
+        <v>228607</v>
       </c>
     </row>
     <row r="32">
